--- a/specs.xlsx
+++ b/specs.xlsx
@@ -318,11 +318,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Change all NodePorts to Nginx Ports</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dashboards - K8s/RabbitMQ/PG/Mongo/Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change all NodePorts to Nginx Ports
+2. Mongo Exporter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,56 +545,59 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,27 +908,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -938,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -959,23 +963,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="72.375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="13.75" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="12" customWidth="1"/>
-    <col min="9" max="11" width="18.625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="16" style="12" customWidth="1"/>
-    <col min="13" max="13" width="59.25" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="72.375" style="11" customWidth="1"/>
+    <col min="6" max="7" width="13.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="11" customWidth="1"/>
+    <col min="9" max="11" width="18.625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16" style="11" customWidth="1"/>
+    <col min="13" max="13" width="59.25" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1020,89 +1024,89 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1111,19 +1115,19 @@
       <c r="F5" s="2">
         <v>0.25</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1141,22 +1145,22 @@
       <c r="G6" s="2">
         <v>1433.6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1172,22 +1176,22 @@
       <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1205,26 +1209,26 @@
       <c r="G8" s="2">
         <v>32</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="13" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1240,100 +1244,100 @@
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="2">
         <v>1.5</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>78</v>
+      <c r="I10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="2">
         <v>0.25</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="18" t="s">
+      <c r="I11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1348,23 +1352,23 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="I12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1379,97 +1383,97 @@
       <c r="F13" s="2">
         <v>0.5</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="18" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="13" t="s">
         <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="20" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="13" t="s">
         <v>69</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="2">
         <v>0.5</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,7 +1487,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/specs.xlsx
+++ b/specs.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="466" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="466" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
     <sheet name="Software_SingleNode" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="UserManual" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>Catalog</t>
   </si>
@@ -162,18 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grafana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OTA-Worker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ecgwc/es-mongo:3.6.9-stretch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,15 +299,152 @@
   </si>
   <si>
     <t>NodePort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dashboards - K8s/RabbitMQ/PG/Mongo/Others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Change all NodePorts to Nginx Ports
 2. Mongo Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMMPortal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMMWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboards - K8s/RabbitMQ/PG/Mongo/Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Alex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introductiuon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the DNS Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Nginx Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Endpoints (Ingress)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Configuration of Authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting Environment to request with the DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References of Other Documents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Introduction of Applications
+2. Specs of Our Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.kube/config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,8 +488,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,12 +517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -545,6 +666,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,9 +699,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,6 +719,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,28 +1033,28 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="1" max="2" width="35.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -963,23 +1093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="72.375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="11" customWidth="1"/>
-    <col min="9" max="11" width="18.625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16" style="11" customWidth="1"/>
-    <col min="13" max="13" width="59.25" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="72.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="26.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="12" customWidth="1"/>
+    <col min="9" max="11" width="18.625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="16" style="12" customWidth="1"/>
+    <col min="13" max="13" width="59.25" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -999,35 +1130,35 @@
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1035,17 +1166,17 @@
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -1054,21 +1185,21 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="13" t="s">
-        <v>69</v>
+      <c r="H3" s="6"/>
+      <c r="I3" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -1080,7 +1211,7 @@
       <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="16"/>
@@ -1091,9 +1222,9 @@
         <v>3</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="13" t="s">
-        <v>69</v>
+      <c r="H4" s="6"/>
+      <c r="I4" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1103,11 +1234,11 @@
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>69</v>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -1116,9 +1247,9 @@
         <v>0.25</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13" t="s">
-        <v>69</v>
+      <c r="H5" s="6"/>
+      <c r="I5" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -1131,13 +1262,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>6</v>
@@ -1145,14 +1276,14 @@
       <c r="G6" s="2">
         <v>1433.6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>69</v>
+      <c r="I6" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -1162,13 +1293,13 @@
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F7" s="2">
         <v>0.5</v>
@@ -1176,14 +1307,14 @@
       <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>69</v>
+      <c r="I7" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -1191,17 +1322,17 @@
     </row>
     <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
@@ -1209,142 +1340,144 @@
       <c r="G8" s="2">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>69</v>
+      <c r="I8" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>69</v>
+      <c r="I9" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>69</v>
+      <c r="D10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="2">
         <v>1.5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>79</v>
+      <c r="I10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="2">
         <v>0.25</v>
       </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>69</v>
+      <c r="H11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
@@ -1353,48 +1486,48 @@
         <v>1</v>
       </c>
       <c r="G12" s="16"/>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>69</v>
+      <c r="I12" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="2">
         <v>0.5</v>
       </c>
       <c r="G13" s="16"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="13" t="s">
-        <v>69</v>
+      <c r="H13" s="6"/>
+      <c r="I13" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1403,30 +1536,30 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="13" t="s">
-        <v>69</v>
+      <c r="H14" s="6"/>
+      <c r="I14" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -1434,19 +1567,19 @@
       <c r="A15" s="20"/>
       <c r="B15" s="22"/>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="13" t="s">
-        <v>69</v>
+      <c r="E15" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="13" t="s">
-        <v>69</v>
+      <c r="H15" s="6"/>
+      <c r="I15" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -1457,19 +1590,19 @@
       <c r="A16" s="20"/>
       <c r="B16" s="22"/>
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="13" t="s">
-        <v>69</v>
+      <c r="E16" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F16" s="2">
         <v>0.5</v>
       </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="13" t="s">
-        <v>69</v>
+      <c r="H16" s="6"/>
+      <c r="I16" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -1483,11 +1616,11 @@
       </c>
       <c r="G17" s="2">
         <f>SUM(G2:G16)</f>
-        <v>1473.6</v>
+        <v>1483.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1506,13 +1639,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="45.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="70.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C15:C18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>